--- a/src/je/panse/doro/aeternum/dataxlsx/AtypicalChestPain.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/AtypicalChestPain.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t xml:space="preserve">DM</t>
   </si>
@@ -54,8 +54,7 @@
   </si>
   <si>
     <t xml:space="preserve">Pain in the center of the chest 
-that can feel like pressure, fullness, or squeezing 
-That lasts more than a few minutes</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Where it’s located</t>
@@ -73,103 +72,109 @@
     <t xml:space="preserve">Bloody stool</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain moving from the chest 
+    <t xml:space="preserve"> feel like pressure, fullness, or squeezing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How intense it is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausea and vomiting that doesn’t resolve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That lasts more than a few minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether it’s dull, stabbing, burning, or cramping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blurred vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased appetite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sputum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiating  from the chest 
 To shoulders, arms, back, or jaw</t>
   </si>
   <si>
-    <t xml:space="preserve">How intense it is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fatigue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nausea and vomiting that doesn’t resolve</t>
+    <t xml:space="preserve">Whether it comes and goes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numbness or tingling in the feet or hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diarrhea and more frequent bowel movements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasal congestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellowish skin</t>
   </si>
   <si>
     <t xml:space="preserve">Shortness of breath</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether it’s dull, stabbing, burning, or cramping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blurred vision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increased appetite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sputum</t>
+    <t xml:space="preserve">When you experience or notice it most</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sores that do not heal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vision changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneezing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdomen very tender to touch</t>
   </si>
   <si>
     <t xml:space="preserve">Nausea and vomiting</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether it comes and goes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numbness or tingling in the feet or hands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diarrhea and more frequent bowel movements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nasal congestion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellowish skin</t>
+    <t xml:space="preserve">Whether it radiates outward to other areas of your body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unexplained weight loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thin, warm and moist skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sore throat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swollen abdomen</t>
   </si>
   <si>
     <t xml:space="preserve">Sweating</t>
   </si>
   <si>
-    <t xml:space="preserve">When you experience or notice it most</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sores that do not heal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vision changes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sneezing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdomen very tender to touch</t>
+    <t xml:space="preserve">How long you’ve had it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unexplained weight gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menstrual changes</t>
   </si>
   <si>
     <t xml:space="preserve">Feeling faint</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether it radiates outward to other areas of your body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unexplained weight loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thin, warm and moist skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sore throat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swollen abdomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How long you’ve had it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unexplained weight gain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menstrual changes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Whether any activities or actions seem to make it worse or better</t>
   </si>
   <si>
@@ -191,15 +196,24 @@
     <t xml:space="preserve">Nocturia</t>
   </si>
   <si>
+    <t xml:space="preserve">High likelihood of ACS: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hair loss and change in hair texture (brittle).</t>
   </si>
   <si>
     <t xml:space="preserve">Gross hematuria</t>
   </si>
   <si>
+    <t xml:space="preserve">• Chest pain with radiation to the arms or shoulders</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bulging of the eyes</t>
   </si>
   <si>
+    <t xml:space="preserve">• Chest pain associated with exertion, diaphoresis, nausea or vomiting.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Muscle weakness.</t>
   </si>
   <si>
@@ -209,21 +223,36 @@
     <t xml:space="preserve">….</t>
   </si>
   <si>
+    <t xml:space="preserve">• Chest pain described as pressure or similar to a </t>
+  </si>
+  <si>
     <t xml:space="preserve">tiredness</t>
   </si>
   <si>
+    <t xml:space="preserve">previous MI.” </t>
+  </si>
+  <si>
     <t xml:space="preserve">being sensitive to cold</t>
   </si>
   <si>
     <t xml:space="preserve">weight gain</t>
   </si>
   <si>
+    <t xml:space="preserve">Important findings with chest pain</t>
+  </si>
+  <si>
     <t xml:space="preserve">constipation</t>
   </si>
   <si>
+    <t xml:space="preserve">New diastolic murmur</t>
+  </si>
+  <si>
     <t xml:space="preserve">depression</t>
   </si>
   <si>
+    <t xml:space="preserve">Late-peaking systolic murmur</t>
+  </si>
+  <si>
     <t xml:space="preserve">slow movements and thoughts</t>
   </si>
   <si>
@@ -233,13 +262,22 @@
     <t xml:space="preserve">muscle cramps</t>
   </si>
   <si>
+    <t xml:space="preserve">Discomfort in the jaw, neck, back or chest</t>
+  </si>
+  <si>
     <t xml:space="preserve">dry and scaly skin</t>
   </si>
   <si>
     <t xml:space="preserve">brittle hair and nails</t>
   </si>
   <si>
+    <t xml:space="preserve">Cold sweat</t>
+  </si>
+  <si>
     <t xml:space="preserve">loss of libido (sex drive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightheadedness or nausea</t>
   </si>
   <si>
     <t xml:space="preserve">pain, numbness and a tingling sensation in the hand and fingers (carpal tunnel syndrome)</t>
@@ -255,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK KR"/>
@@ -284,6 +322,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK KR"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -327,7 +370,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -342,6 +385,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -367,7 +414,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="32.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="32.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="39.62"/>
   </cols>
@@ -436,12 +483,12 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="36.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>6</v>
       </c>
@@ -461,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -474,7 +521,7 @@
       <c r="D2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -494,14 +541,14 @@
       <c r="D3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>24</v>
       </c>
@@ -514,7 +561,7 @@
       <c r="D4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -575,18 +622,18 @@
         <v>44</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
@@ -595,10 +642,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,10 +670,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>5</v>
@@ -634,112 +681,148 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="F14" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/src/je/panse/doro/aeternum/dataxlsx/AtypicalChestPain.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/AtypicalChestPain.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t xml:space="preserve">DM</t>
   </si>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">How intense it is</t>
   </si>
   <si>
-    <t xml:space="preserve">fatigue</t>
+    <t xml:space="preserve">unexplained weight loss or gain</t>
   </si>
   <si>
     <t xml:space="preserve">Weight loss</t>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">Whether it’s dull, stabbing, burning, or cramping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blurred vision</t>
   </si>
   <si>
     <t xml:space="preserve">Increased appetite</t>
@@ -112,9 +109,6 @@
     <t xml:space="preserve">Whether it comes and goes</t>
   </si>
   <si>
-    <t xml:space="preserve">numbness or tingling in the feet or hands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diarrhea and more frequent bowel movements</t>
   </si>
   <si>
@@ -130,7 +124,7 @@
     <t xml:space="preserve">When you experience or notice it most</t>
   </si>
   <si>
-    <t xml:space="preserve">sores that do not heal</t>
+    <t xml:space="preserve">yeast infections</t>
   </si>
   <si>
     <t xml:space="preserve">Vision changes</t>
@@ -148,7 +142,7 @@
     <t xml:space="preserve">Whether it radiates outward to other areas of your body</t>
   </si>
   <si>
-    <t xml:space="preserve">unexplained weight loss</t>
+    <t xml:space="preserve">blurred vision</t>
   </si>
   <si>
     <t xml:space="preserve">Thin, warm and moist skin</t>
@@ -166,7 +160,7 @@
     <t xml:space="preserve">How long you’ve had it</t>
   </si>
   <si>
-    <t xml:space="preserve">unexplained weight gain</t>
+    <t xml:space="preserve">fatigue</t>
   </si>
   <si>
     <t xml:space="preserve">Menstrual changes</t>
@@ -178,16 +172,35 @@
     <t xml:space="preserve">Whether any activities or actions seem to make it worse or better</t>
   </si>
   <si>
+    <t xml:space="preserve">Gastroparesis, 
+Diarrhea without pain abdomen 
+Fecal incontinence
+Abdominal pain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intolerance to heat and excessive sweating</t>
   </si>
   <si>
     <t xml:space="preserve">Dysuria</t>
   </si>
   <si>
+    <t xml:space="preserve">Musculoskeletal
+Periarthritis shoulder – Pain and limitation of movements
+Cheiroarthropathy – Stiffness and limited mobility of fingers
+Neuroarthropathy 
+• Painless unilateral swelling of foot and ankle 
+• Spinal hyperostosis – Mild back pain with preservation of back movements</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sleep issues.</t>
   </si>
   <si>
     <t xml:space="preserve">Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Depression 
+• Obstructive Sleep Apnea 
+• Hypogonadism.</t>
   </si>
   <si>
     <t xml:space="preserve">Swelling and goiter</t>
@@ -370,7 +383,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -385,6 +398,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -414,7 +431,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="32.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="32.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="39.62"/>
   </cols>
@@ -483,10 +500,10 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="36.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -529,7 +546,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -550,102 +567,102 @@
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,18 +685,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="F10" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>53</v>
       </c>
@@ -687,142 +710,145 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
